--- a/冰的溶解热.xlsx
+++ b/冰的溶解热.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-公式保护branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0FAE1A-1513-4001-89A1-157E7217D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020E1244-6BB7-4798-BB99-1B1DE3A23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>冰的溶解热实验</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>过程中的温度（以下可不填，选中后可以直接用excel散点作图）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>溶解热L/(J/kg)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,10 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Authored by Axolyz.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,15 +148,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程中的温度（以下是个用于作图方便的纯表格，不包含公式, 选中后可以直接用excel散点作图）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +564,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11 B15:D15 B20:D20 B22:D22 B26:D27"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,23 +580,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -616,7 +610,7 @@
     </row>
     <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>4.1867999999999999</v>
@@ -630,7 +624,7 @@
     </row>
     <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>0.38500000000000001</v>
@@ -644,7 +638,7 @@
     </row>
     <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>0.37</v>
@@ -658,7 +652,7 @@
     </row>
     <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7">
         <f>3.341*10^5</f>
@@ -681,7 +675,7 @@
     </row>
     <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>18.600000000000001</v>
@@ -695,7 +689,7 @@
     </row>
     <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>18.600000000000001</v>
@@ -709,7 +703,7 @@
     </row>
     <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8">
         <f>(B13+B14)/2</f>
@@ -732,49 +726,37 @@
     </row>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5">
         <v>107.1</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
         <v>1.214E-2</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
         <v>247.47</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8">
         <f>B19-B18-B17</f>
@@ -782,30 +764,26 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" ref="C20:D20" si="1">C19-C18-C17</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4">
         <v>279.07</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="8">
         <f>B21-B19</f>
@@ -822,31 +800,23 @@
     </row>
     <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4">
         <v>29.6</v>
       </c>
-      <c r="C23" s="4">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4">
-        <v>38</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="4">
         <v>11.6</v>
       </c>
-      <c r="C24" s="4">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4">
-        <v>26</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -856,7 +826,7 @@
     </row>
     <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="8">
         <f>1000/B22*(B8*B20+B9*B17+B10*B18)*(B23-B24)-B8*B24</f>
@@ -873,7 +843,7 @@
     </row>
     <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="8">
         <f>(B26-B11)/B11</f>
@@ -890,7 +860,7 @@
     </row>
     <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1061,28 +1031,26 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A55" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/冰的溶解热.xlsx
+++ b/冰的溶解热.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020E1244-6BB7-4798-BB99-1B1DE3A23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8474800-9618-471D-9083-EECF98DD8D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>冰的溶解热实验</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -137,18 +137,6 @@
   </si>
   <si>
     <t>实验次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -564,7 +552,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,10 +565,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,103 +584,89 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4.1867999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.1867999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4.1867999999999999</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.38500000000000001</v>
+        <v>4.1867999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>0.38500000000000001</v>
+        <v>4.1867999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.38500000000000001</v>
+        <v>4.1867999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.37</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>0.37</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>0.37</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <f>3.341*10^5</f>
         <v>334100</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <f>3.341*10^5</f>
         <v>334100</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <f>3.341*10^5</f>
         <v>334100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
     <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C13" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>18.600000000000001</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>18.600000000000001</v>
@@ -703,191 +680,197 @@
     </row>
     <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
-        <f>(B13+B14)/2</f>
+      <c r="B16" s="8">
+        <f>(B14+B15)/2</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="C15" s="8">
-        <f t="shared" ref="C15:D15" si="0">(C13+C14)/2</f>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:D16" si="0">(C14+C15)/2</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5">
-        <v>107.1</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>1.214E-2</v>
+        <v>107.1</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>247.47</v>
+        <v>1.214E-2</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5">
+        <v>247.47</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8">
-        <f>B19-B18-B17</f>
+      <c r="B21" s="8">
+        <f>B20-B19-B18</f>
         <v>140.35786000000002</v>
       </c>
-      <c r="C20" s="8">
-        <f t="shared" ref="C20:D20" si="1">C19-C18-C17</f>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:D21" si="1">C20-C19-C18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4">
-        <v>279.07</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
     <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>279.07</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="8">
-        <f>B21-B19</f>
+      <c r="B23" s="8">
+        <f>B22-B20</f>
         <v>31.599999999999994</v>
       </c>
-      <c r="C22" s="8">
-        <f t="shared" ref="C22:D22" si="2">C21-C19</f>
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:D23" si="2">C22-C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
     <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>11.6</v>
+        <v>29.6</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8">
-        <f>1000/B22*(B8*B20+B9*B17+B10*B18)*(B23-B24)-B8*B24</f>
-        <v>358178.93441316468</v>
-      </c>
-      <c r="C26" s="8" t="e">
-        <f>1/C22*(C8*C20+C9*C17+C10*C18)*(C23-C24)-C8*C24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="8" t="e">
-        <f>1/D22*(D8*D20+D9*D17+D10*D18)*(D23-D24)-D8*D24</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8">
+        <f>1000/B23*(B9*B21+B10*B18+B11*B19)*(B24-B25)-B9*B25</f>
+        <v>358178.93441316468</v>
+      </c>
+      <c r="C27" s="8" t="e">
+        <f>1/C23*(C9*C21+C10*C18+C11*C19)*(C24-C25)-C9*C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="8" t="e">
+        <f>1/D23*(D9*D21+D10*D18+D11*D19)*(D24-D25)-D9*D25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="8">
-        <f>(B26-B11)/B11</f>
+      <c r="B28" s="8">
+        <f>(B27-B12)/B12</f>
         <v>7.2071039847843993E-2</v>
       </c>
-      <c r="C27" s="8" t="e">
-        <f>(C26-C11)/C11</f>
+      <c r="C28" s="8" t="e">
+        <f>(C27-C12)/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="8" t="e">
-        <f>(D26-D11)/D11</f>
+      <c r="D28" s="8" t="e">
+        <f>(D27-D12)/D12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>10</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -895,7 +878,7 @@
     </row>
     <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -903,7 +886,7 @@
     </row>
     <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -911,7 +894,7 @@
     </row>
     <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -919,7 +902,7 @@
     </row>
     <row r="36" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -927,7 +910,7 @@
     </row>
     <row r="37" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -935,7 +918,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -943,7 +926,7 @@
     </row>
     <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -951,7 +934,7 @@
     </row>
     <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -959,7 +942,7 @@
     </row>
     <row r="41" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -967,7 +950,7 @@
     </row>
     <row r="42" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -975,7 +958,7 @@
     </row>
     <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -983,7 +966,7 @@
     </row>
     <row r="44" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -991,7 +974,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -999,7 +982,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1007,7 +990,7 @@
     </row>
     <row r="47" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1015,7 +998,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1023,31 +1006,19 @@
     </row>
     <row r="49" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>28</v>
-      </c>
+    <row r="50" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>450</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>

--- a/冰的溶解热.xlsx
+++ b/冰的溶解热.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8474800-9618-471D-9083-EECF98DD8D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B511127-6701-4CDF-B6D5-7D33273940D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$32:$A$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$32:$B$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$32:$A$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$32:$B$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$32:$A$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$32:$B$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>冰的溶解热实验</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,12 +159,40 @@
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>时间/min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入你投入冰的时间/min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始温度/℃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截距</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室温/℃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外推法（每做一次实验应该重做一次）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +227,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF7FB421"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,12 +289,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -268,10 +331,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{7BF1D558-E753-4F30-8235-FA3FCA256C36}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,6 +371,2191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$34:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$34:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26A6-449B-A6BC-EA8FFA653459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1095961183"/>
+        <c:axId val="1095966463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1095961183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095966463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1095966463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095961183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31.079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8045-4EB3-9BFB-F8D8367B9222}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8045-4EB3-9BFB-F8D8367B9222}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="787811775"/>
+        <c:axId val="787814175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="787811775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787814175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787814175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787811775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7014E53-8926-EF92-769A-1C44C8478D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82BB867-1903-F08D-F988-B25AA236BC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,99 +2821,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="35.9140625" style="3" customWidth="1"/>
+    <col min="2" max="11" width="8.9140625" style="3"/>
+    <col min="12" max="12" width="22.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.9140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1"/>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>4.1867999999999999</v>
       </c>
-      <c r="C9" s="2">
-        <v>4.1867999999999999</v>
-      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="2">
         <v>4.1867999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="15"/>
+      <c r="F9" s="2">
+        <v>4.1867999999999999</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>0.38500000000000001</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.38500000000000001</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="2">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="15"/>
+      <c r="F10" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>0.37</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.37</v>
-      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="15"/>
+      <c r="F11" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -649,212 +2938,264 @@
         <f>3.341*10^5</f>
         <v>334100</v>
       </c>
-      <c r="C12" s="7">
-        <f>3.341*10^5</f>
-        <v>334100</v>
-      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="7">
         <f>3.341*10^5</f>
         <v>334100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="16"/>
+      <c r="F12" s="7">
+        <f>3.341*10^5</f>
+        <v>334100</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="15"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C14" s="4">
-        <v>18.600000000000001</v>
-      </c>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="4">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="15"/>
+      <c r="F14" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18.600000000000001</v>
-      </c>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="4">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="15"/>
+      <c r="F15" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="8">
         <f>(B14+B15)/2</f>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:F16" si="0">(D14+D15)/2</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="C16" s="8">
-        <f t="shared" ref="C16:D16" si="0">(C14+C15)/2</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="E16" s="16"/>
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="15"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>107.1</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>105.27</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="17"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>1.214E-2</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="17"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>247.47</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>233.25</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="17"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="8">
         <f>B20-B19-B18</f>
-        <v>140.35786000000002</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" ref="C21:D21" si="1">C20-C19-C18</f>
+        <v>115.98</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="8">
+        <f t="shared" ref="D21:F21" si="1">D20-D19-D18</f>
         <v>0</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="16"/>
+      <c r="F21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>279.07</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>257.12</v>
+      </c>
+      <c r="C22" s="15"/>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="15"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="8">
         <f>B22-B20</f>
-        <v>31.599999999999994</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" ref="C23:D23" si="2">C22-C20</f>
+        <v>23.870000000000005</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:F23" si="2">D22-D20</f>
         <v>0</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="16"/>
+      <c r="F23" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="C24" s="4"/>
+      <c r="B24" s="8">
+        <f>M36</f>
+        <v>31.079999999999995</v>
+      </c>
+      <c r="C24" s="15"/>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="15"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>14.8</v>
+      </c>
+      <c r="C25" s="15"/>
       <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="15"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" thickBot="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="15"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="8">
         <f>1000/B23*(B9*B21+B10*B18+B11*B19)*(B24-B25)-B9*B25</f>
-        <v>358178.93441316468</v>
-      </c>
-      <c r="C27" s="8" t="e">
-        <f>1/C23*(C9*C21+C10*C18+C11*C19)*(C24-C25)-C9*C25</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>361790.54260423948</v>
+      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="8" t="e">
         <f>1/D23*(D9*D21+D10*D18+D11*D19)*(D24-D25)-D9*D25</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="16"/>
+      <c r="F27" s="8" t="e">
+        <f>1/F23*(F9*F21+F10*F18+F11*F19)*(F24-F25)-F9*F25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="8">
         <f>(B27-B12)/B12</f>
-        <v>7.2071039847843993E-2</v>
-      </c>
-      <c r="C28" s="8" t="e">
-        <f>(C27-C12)/C12</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>8.2881001509247182E-2</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="8" t="e">
         <f>(D27-D12)/D12</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="16"/>
+      <c r="F28" s="8" t="e">
+        <f>(F27-F12)/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.5" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,170 +3203,425 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.5" thickBot="1">
       <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="8">
+        <f>M36</f>
+        <v>31.079999999999995</v>
+      </c>
+      <c r="C32" s="8">
+        <f>B16</f>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="8">
+        <f>D16</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="8">
+        <f>F16</f>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="B33" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" ref="C33:C40" si="3">C32</f>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8">
+        <f>E32</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="8">
+        <f>+G32</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A34" s="1">
         <v>20</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="B34" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="3"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="8">
+        <f t="shared" ref="E34:E41" si="4">E33</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="8">
+        <f t="shared" ref="G34:G41" si="5">+G33</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="B35" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="3"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2</v>
+      </c>
+      <c r="J35" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A36" s="1">
         <v>40</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="B36" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="3"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I36" s="9">
+        <v>3</v>
+      </c>
+      <c r="J36" s="10">
+        <v>31.9</v>
+      </c>
+      <c r="L36" s="11">
+        <v>6</v>
+      </c>
+      <c r="M36" s="14">
+        <f>N36*L36+O36</f>
+        <v>31.079999999999995</v>
+      </c>
+      <c r="N36" s="12">
+        <f>SLOPE(J34:J38,I34:I38)</f>
+        <v>-0.28000000000000042</v>
+      </c>
+      <c r="O36" s="12">
+        <f>INTERCEPT(J34:J38,I34:I38)</f>
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A37" s="1">
         <v>50</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="B37" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="3"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I37" s="9">
+        <v>4</v>
+      </c>
+      <c r="J37" s="10">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A38" s="1">
         <v>60</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="B38" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="3"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I38" s="9">
+        <v>5</v>
+      </c>
+      <c r="J38" s="10">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A39" s="1">
         <v>90</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="B39" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="3"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A40" s="1">
         <v>120</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="B40" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="3"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A41" s="1">
         <v>150</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="B41" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="C41" s="8">
+        <f>C40</f>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="14.5" thickBot="1">
+      <c r="A42" s="1">
         <v>180</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>210</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.5" thickBot="1">
       <c r="A43" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.5" thickBot="1">
       <c r="A44" s="1">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.5" thickBot="1">
       <c r="A45" s="1">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.5" thickBot="1">
       <c r="A46" s="1">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.5" thickBot="1">
       <c r="A47" s="1">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.5" thickBot="1">
       <c r="A48" s="1">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.5" thickBot="1">
       <c r="A49" s="1">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.5" thickBot="1">
       <c r="A50" s="1">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A51" s="1">
+        <v>450</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/冰的溶解热.xlsx
+++ b/冰的溶解热.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B511127-6701-4CDF-B6D5-7D33273940D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B87819C-A32C-4BEF-8860-C5E1D51A4F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-2604" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$32:$A$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$32:$B$41</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$32:$A$41</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$32:$B$41</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$32:$A$41</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$32:$B$41</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -347,7 +339,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -607,19 +599,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32.5</c:v>
+                  <c:v>32.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.9</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.4</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,10 +975,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$A$41</c:f>
+              <c:f>Sheet1!$A$32:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1009,40 +1001,46 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$41</c:f>
+              <c:f>Sheet1!$B$32:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>31.079999999999995</c:v>
+                  <c:v>30.940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.5</c:v>
+                  <c:v>25.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.9</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.100000000000001</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15.3</c:v>
@@ -1051,10 +1049,16 @@
                   <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.8</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.8</c:v>
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,10 +1102,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$A$41</c:f>
+              <c:f>Sheet1!$A$32:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1124,52 +1128,64 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$C$41</c:f>
+              <c:f>Sheet1!$C$32:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.649999999999999</c:v>
+                  <c:v>19.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
@@ -2964,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>19.899999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="4">
@@ -2981,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>19.399999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="4">
@@ -2999,7 +3015,7 @@
       </c>
       <c r="B16" s="8">
         <f>(B14+B15)/2</f>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8">
@@ -3053,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>233.25</v>
+        <v>235.25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="5"/>
@@ -3067,7 +3083,7 @@
       </c>
       <c r="B21" s="8">
         <f>B20-B19-B18</f>
-        <v>115.98</v>
+        <v>117.98</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="8">
@@ -3086,7 +3102,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>257.12</v>
+        <v>252.12</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="4"/>
@@ -3100,7 +3116,7 @@
       </c>
       <c r="B23" s="8">
         <f>B22-B20</f>
-        <v>23.870000000000005</v>
+        <v>16.870000000000005</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="8">
@@ -3120,7 +3136,7 @@
       </c>
       <c r="B24" s="8">
         <f>M36</f>
-        <v>31.079999999999995</v>
+        <v>30.940000000000005</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="4"/>
@@ -3133,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4">
-        <v>14.8</v>
+        <v>13.9</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="4"/>
@@ -3156,7 +3172,7 @@
       </c>
       <c r="B27" s="8">
         <f>1000/B23*(B9*B21+B10*B18+B11*B19)*(B24-B25)-B9*B25</f>
-        <v>361790.54260423948</v>
+        <v>544300.22331165394</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="8" t="e">
@@ -3176,7 +3192,7 @@
       </c>
       <c r="B28" s="8">
         <f>(B27-B12)/B12</f>
-        <v>8.2881001509247182E-2</v>
+        <v>0.62915361661674329</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="8" t="e">
@@ -3227,11 +3243,11 @@
       </c>
       <c r="B32" s="8">
         <f>M36</f>
-        <v>31.079999999999995</v>
+        <v>30.940000000000005</v>
       </c>
       <c r="C32" s="8">
         <f>B16</f>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="8">
@@ -3249,11 +3265,11 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" ref="C33:C40" si="3">C32</f>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="8">
@@ -3277,27 +3293,27 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="C34" s="8">
         <f t="shared" si="3"/>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="8">
-        <f t="shared" ref="E34:E41" si="4">E33</f>
+        <f t="shared" ref="E34:E43" si="4">E33</f>
         <v>18.600000000000001</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="8">
-        <f t="shared" ref="G34:G41" si="5">+G33</f>
+        <f t="shared" ref="G34:G43" si="5">+G33</f>
         <v>18.600000000000001</v>
       </c>
       <c r="I34" s="9">
         <v>1</v>
       </c>
       <c r="J34" s="10">
-        <v>32.5</v>
+        <v>32.700000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="14.5" thickBot="1">
@@ -3305,11 +3321,11 @@
         <v>30</v>
       </c>
       <c r="B35" s="4">
-        <v>18.899999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C35" s="8">
         <f t="shared" si="3"/>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="8">
@@ -3349,7 +3365,7 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="3"/>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="8">
@@ -3365,22 +3381,22 @@
         <v>3</v>
       </c>
       <c r="J36" s="10">
-        <v>31.9</v>
+        <v>31.2</v>
       </c>
       <c r="L36" s="11">
         <v>6</v>
       </c>
       <c r="M36" s="14">
         <f>N36*L36+O36</f>
-        <v>31.079999999999995</v>
+        <v>30.940000000000005</v>
       </c>
       <c r="N36" s="12">
         <f>SLOPE(J34:J38,I34:I38)</f>
-        <v>-0.28000000000000042</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="O36" s="12">
         <f>INTERCEPT(J34:J38,I34:I38)</f>
-        <v>32.76</v>
+        <v>32.740000000000009</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="14.5" thickBot="1">
@@ -3388,11 +3404,11 @@
         <v>50</v>
       </c>
       <c r="B37" s="4">
-        <v>16.100000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C37" s="8">
         <f t="shared" si="3"/>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="8">
@@ -3420,7 +3436,7 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" si="3"/>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="8">
@@ -3436,19 +3452,19 @@
         <v>5</v>
       </c>
       <c r="J38" s="10">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="14.5" thickBot="1">
       <c r="A39" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4">
         <v>14.8</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" si="3"/>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="8">
@@ -3463,14 +3479,14 @@
     </row>
     <row r="40" spans="1:15" ht="14.5" thickBot="1">
       <c r="A40" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B40" s="4">
-        <v>14.8</v>
+        <v>13.9</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" si="3"/>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="8">
@@ -3485,14 +3501,14 @@
     </row>
     <row r="41" spans="1:15" ht="14.5" thickBot="1">
       <c r="A41" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B41" s="4">
-        <v>14.8</v>
+        <v>13.9</v>
       </c>
       <c r="C41" s="8">
         <f>C40</f>
-        <v>19.649999999999999</v>
+        <v>19.55</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="8">
@@ -3507,29 +3523,51 @@
     </row>
     <row r="42" spans="1:15" ht="14.5" thickBot="1">
       <c r="A42" s="1">
-        <v>180</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="B42" s="4">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" ref="C42:C43" si="6">C41</f>
+        <v>19.55</v>
+      </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="14.5" thickBot="1">
       <c r="A43" s="1">
-        <v>210</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="B43" s="4">
+        <v>14</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="6"/>
+        <v>19.55</v>
+      </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="8">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="8">
+        <f t="shared" si="5"/>
+        <v>18.600000000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="14.5" thickBot="1">
       <c r="A44" s="1">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3540,7 +3578,7 @@
     </row>
     <row r="45" spans="1:15" ht="14.5" thickBot="1">
       <c r="A45" s="1">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3551,7 +3589,7 @@
     </row>
     <row r="46" spans="1:15" ht="14.5" thickBot="1">
       <c r="A46" s="1">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3562,7 +3600,7 @@
     </row>
     <row r="47" spans="1:15" ht="14.5" thickBot="1">
       <c r="A47" s="1">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3573,7 +3611,7 @@
     </row>
     <row r="48" spans="1:15" ht="14.5" thickBot="1">
       <c r="A48" s="1">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3584,7 +3622,7 @@
     </row>
     <row r="49" spans="1:7" ht="14.5" thickBot="1">
       <c r="A49" s="1">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3595,7 +3633,7 @@
     </row>
     <row r="50" spans="1:7" ht="14.5" thickBot="1">
       <c r="A50" s="1">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3606,7 +3644,7 @@
     </row>
     <row r="51" spans="1:7" ht="14.5" thickBot="1">
       <c r="A51" s="1">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
